--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.28090000000002</v>
+        <v>-21.37870000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.27950000000001</v>
+        <v>-14.0224</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.244699999999995</v>
+        <v>-7.541699999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.98620000000001</v>
+        <v>-12.0096</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,10 +621,10 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.2105</v>
+        <v>-13.1695</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.195700000000004</v>
+        <v>-8.2849</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.09700000000002</v>
+        <v>-21.08340000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.68329999999999</v>
+        <v>-10.6145</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.525499999999997</v>
+        <v>-7.502299999999998</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.34060000000002</v>
+        <v>-21.37530000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.60730000000004</v>
+        <v>-22.56600000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
